--- a/Daily Task List/Hershlin Naidoo Daily Task List.xlsx
+++ b/Daily Task List/Hershlin Naidoo Daily Task List.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Clients\UBA\Daily Task List\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Clients\UBA\Timesheets\Daily Task List\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Task List" sheetId="1" r:id="rId1"/>
+    <sheet name="Reports to complete" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="171027"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="56">
   <si>
     <t>Resource</t>
   </si>
@@ -47,13 +47,160 @@
   </si>
   <si>
     <t>Date</t>
+  </si>
+  <si>
+    <t>Report No</t>
+  </si>
+  <si>
+    <t>Reporting Area</t>
+  </si>
+  <si>
+    <t>Phase</t>
+  </si>
+  <si>
+    <t>Report Name</t>
+  </si>
+  <si>
+    <t>Environment Loaded On (UAT/PreProd/Prod)</t>
+  </si>
+  <si>
+    <t>Reason Not Completed</t>
+  </si>
+  <si>
+    <t>HR Confirm</t>
+  </si>
+  <si>
+    <t>UBA Team Only</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Confirmation Database report </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deferment report </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Former employment reference report </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guarantor report </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Result verification report </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Periodic Confirmation report </t>
+  </si>
+  <si>
+    <t>Existing staff background check report</t>
+  </si>
+  <si>
+    <t>CBN new hires clearance report</t>
+  </si>
+  <si>
+    <t>Confirmation Appraisal Report</t>
+  </si>
+  <si>
+    <t>HR Exit</t>
+  </si>
+  <si>
+    <t>Exit Checklist Template</t>
+  </si>
+  <si>
+    <t>Staff Exit Template</t>
+  </si>
+  <si>
+    <t>History of Exit Requests</t>
+  </si>
+  <si>
+    <t>Letter of Resignation (indebtedness &amp; benefit)</t>
+  </si>
+  <si>
+    <t>Terminal Account - Benefit</t>
+  </si>
+  <si>
+    <t>Terminal Account - Indebtedness</t>
+  </si>
+  <si>
+    <t>Terminal Account -Retirement</t>
+  </si>
+  <si>
+    <t>Exit Interview Form</t>
+  </si>
+  <si>
+    <t>Exit Clearance Checklist &amp; List of Clearance Stakeholders</t>
+  </si>
+  <si>
+    <t>Letter of Termination – Credit Balance</t>
+  </si>
+  <si>
+    <t>Letter of Termination – Debit Balance</t>
+  </si>
+  <si>
+    <t>Letter of Dismissal - No Benefit</t>
+  </si>
+  <si>
+    <t>Letter of Dismissal – No Benefit</t>
+  </si>
+  <si>
+    <t>Letter of Dismissal – Debit Balance</t>
+  </si>
+  <si>
+    <t>HR Redeploy</t>
+  </si>
+  <si>
+    <t>Redeployment Letter</t>
+  </si>
+  <si>
+    <t>HR Relief</t>
+  </si>
+  <si>
+    <t>Relief Assignment Letter</t>
+  </si>
+  <si>
+    <t>HR Medical</t>
+  </si>
+  <si>
+    <t>Avon Medical Template</t>
+  </si>
+  <si>
+    <t>Avon Medical Template Changes</t>
+  </si>
+  <si>
+    <t>Avon Medical Staff Dependants Exit Template for Above 18</t>
+  </si>
+  <si>
+    <t>Avon Medical Staff Hospital Exits Template</t>
+  </si>
+  <si>
+    <t>Avon Medical Report - Deleted Dependants</t>
+  </si>
+  <si>
+    <t>Consolidated Avon Medical Report</t>
+  </si>
+  <si>
+    <t>Dependant Details</t>
+  </si>
+  <si>
+    <t>Staff Official Details</t>
+  </si>
+  <si>
+    <t>Medical Consent</t>
+  </si>
+  <si>
+    <t>Pre-employment Medical letter</t>
+  </si>
+  <si>
+    <t>ECA forms</t>
+  </si>
+  <si>
+    <t>Staff Personal Details</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,8 +231,28 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -95,6 +262,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -123,10 +296,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -142,8 +316,32 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -458,7 +656,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -546,12 +744,641 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <v>2</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <v>3</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>4</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <v>5</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <v>6</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <v>8</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <v>9</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <v>1</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <v>2</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
+        <v>3</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
+        <v>4</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
+        <v>5</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="10">
+        <v>6</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="10">
+        <v>7</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="8">
+        <v>8</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="8">
+        <v>9</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="8">
+        <v>10</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="10">
+        <v>11</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="8">
+        <v>12</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="10">
+        <v>13</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="8">
+        <v>14</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="8">
+        <v>1</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="8">
+        <v>1</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="8">
+        <v>1</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="8">
+        <v>2</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+    </row>
+    <row r="29" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="8">
+        <v>3</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+    </row>
+    <row r="30" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="8">
+        <v>4</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+    </row>
+    <row r="31" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="8">
+        <v>5</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="8">
+        <v>6</v>
+      </c>
+      <c r="B32" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="8">
+        <v>7</v>
+      </c>
+      <c r="B33" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="8">
+        <v>8</v>
+      </c>
+      <c r="B34" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="8">
+        <v>9</v>
+      </c>
+      <c r="B35" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="8">
+        <v>10</v>
+      </c>
+      <c r="B36" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C36" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="8">
+        <v>11</v>
+      </c>
+      <c r="B37" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C37" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="8">
+        <v>12</v>
+      </c>
+      <c r="B38" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" location="'HR Admin'!A1" display="HR Confirm"/>
+    <hyperlink ref="B3:B10" location="'HR Admin'!A1" display="HR Confirm"/>
+    <hyperlink ref="B11" location="Exit!A1" display="HR Exit"/>
+    <hyperlink ref="B12:B24" location="Exit!A1" display="HR Exit"/>
+    <hyperlink ref="B27" location="Medical!A1" display="HR Medical"/>
+    <hyperlink ref="B28:B38" location="Medical!A1" display="HR Medical"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
